--- a/outputs_HGR/p__Firmicutes.xlsx
+++ b/outputs_HGR/p__Firmicutes.xlsx
@@ -641,7 +641,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia(reject)</t>
         </is>
       </c>
     </row>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>c__Bacilli</t>
+          <t>c__Bacilli(reject)</t>
         </is>
       </c>
     </row>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>c__Bacilli</t>
+          <t>c__Bacilli(reject)</t>
         </is>
       </c>
     </row>
@@ -24827,7 +24827,7 @@
       </c>
       <c r="G841" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia(reject)</t>
         </is>
       </c>
     </row>
@@ -31062,7 +31062,7 @@
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>c__Negativicutes</t>
+          <t>c__Negativicutes(reject)</t>
         </is>
       </c>
     </row>
@@ -31178,7 +31178,7 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>c__Bacilli</t>
+          <t>c__Bacilli(reject)</t>
         </is>
       </c>
     </row>
@@ -33208,7 +33208,7 @@
       </c>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia(reject)</t>
         </is>
       </c>
     </row>
@@ -33643,7 +33643,7 @@
       </c>
       <c r="G1145" t="inlineStr">
         <is>
-          <t>c__Negativicutes</t>
+          <t>c__Negativicutes(reject)</t>
         </is>
       </c>
     </row>
@@ -33672,7 +33672,7 @@
       </c>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>c__Negativicutes</t>
+          <t>c__Negativicutes(reject)</t>
         </is>
       </c>
     </row>
@@ -37326,7 +37326,7 @@
       </c>
       <c r="G1272" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia(reject)</t>
         </is>
       </c>
     </row>
@@ -43184,7 +43184,7 @@
       </c>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia(reject)</t>
         </is>
       </c>
     </row>
@@ -45678,7 +45678,7 @@
       </c>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>c__Bacilli</t>
+          <t>c__Bacilli(reject)</t>
         </is>
       </c>
     </row>
@@ -45736,7 +45736,7 @@
       </c>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>c__Bacilli</t>
+          <t>c__Bacilli(reject)</t>
         </is>
       </c>
     </row>
@@ -46548,7 +46548,7 @@
       </c>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>c__Bacilli</t>
+          <t>c__Bacilli(reject)</t>
         </is>
       </c>
     </row>
@@ -46896,7 +46896,7 @@
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>c__Negativicutes</t>
+          <t>c__Negativicutes(reject)</t>
         </is>
       </c>
     </row>
@@ -47012,7 +47012,7 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia(reject)</t>
         </is>
       </c>
     </row>
@@ -49071,7 +49071,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>c__Bacilli</t>
+          <t>c__Bacilli(reject)</t>
         </is>
       </c>
     </row>
@@ -54987,7 +54987,7 @@
       </c>
       <c r="G1881" t="inlineStr">
         <is>
-          <t>c__Bacilli</t>
+          <t>c__Bacilli(reject)</t>
         </is>
       </c>
     </row>
@@ -56379,7 +56379,7 @@
       </c>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>c__Clostridia</t>
+          <t>c__Clostridia(reject)</t>
         </is>
       </c>
     </row>
@@ -63455,7 +63455,7 @@
       </c>
       <c r="G2173" t="inlineStr">
         <is>
-          <t>c__Bacilli</t>
+          <t>c__Bacilli(reject)</t>
         </is>
       </c>
     </row>
@@ -66384,7 +66384,7 @@
       </c>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>c__Negativicutes</t>
+          <t>c__Negativicutes(reject)</t>
         </is>
       </c>
     </row>
@@ -66790,7 +66790,7 @@
       </c>
       <c r="G2288" t="inlineStr">
         <is>
-          <t>c__Negativicutes</t>
+          <t>c__Negativicutes(reject)</t>
         </is>
       </c>
     </row>
